--- a/jspEx1/src/db/db설계.xlsx
+++ b/jspEx1/src/db/db설계.xlsx
@@ -1,56 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj-bu-708-00\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaya8\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E16CF19-C306-4BA9-A7B6-418E14605BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACD07C4-CEF0-4DF3-A817-A7D42218A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{3716DFE8-E011-4722-8171-A90C407EC680}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3716DFE8-E011-4722-8171-A90C407EC680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
-  <si>
-    <t>TBL_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_CLASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_BOARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,51 +150,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASSNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOMNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONENTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_CLASS_LIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLASSNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_ENROLL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
+  </si>
+  <si>
+    <t>LISTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLASS_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_USER(유저정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_CLASS(강의정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_BOARD(게시글정보-강의게시글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_COMMENT(댓글정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_ENROLL(수강신청정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_CLASS_LIST(수강내역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_ROOM(강의실정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENROLL_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 신청일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_PROGRAM(프로그램정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RROGRAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSTRUCTOR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사 아이디(USERID)참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 상태(오픈: O , 진행중: I, 종료: E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPERTISE</t>
+  </si>
+  <si>
+    <t>분야(강사만 노출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DAY_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DAY_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,12 +437,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -266,14 +488,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,339 +818,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A143954-A68B-4E5F-BE5E-D12E9386031A}">
-  <dimension ref="A3:S22"/>
+  <dimension ref="A2:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="H12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="I17:L17"/>
@@ -930,6 +1483,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M17:P17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
